--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Girls</t>
+          <t>Girls (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boys</t>
+          <t>Boys (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>452230</v>
+        <v>424978</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>598663</v>
+        <v>560299</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>108050</v>
+        <v>102319</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>105089</v>
+        <v>98528</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>424978</v>
+        <v>1027857</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>560299</v>
+        <v>1399035</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>102319</v>
+        <v>245983</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98528</v>
+        <v>242689</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1027857</v>
+        <v>452230</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1399035</v>
+        <v>598663</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>245983</v>
+        <v>108050</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>242689</v>
+        <v>105089</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,73 +462,73 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1050893</v>
+        <v>23602299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ocap (5-17 y.o.)</t>
+          <t>non_pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>non_pdi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>826821</v>
+        <v>12525253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>idp (5-17 y.o.)</t>
+          <t>pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>pdi</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143427</v>
+        <v>11077047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ret (5-17 y.o.)</t>
+          <t>Girls (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ret</t>
+          <t>All population groups</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65585</v>
+        <v>10381716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ndsp (5-17 y.o.)</t>
+          <t>Boys (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ndsp</t>
+          <t>All population groups</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15060</v>
+        <v>13220583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Girls (5-17 y.o.)</t>
+          <t>ECE (5 y.o.)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>452230</v>
+        <v>2401923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boys (5-17 y.o.)</t>
+          <t>Children with disability</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,37 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>598663</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECE (5 y.o.)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>108050</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Children with disability</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>105089</v>
+        <v>2360230</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -441,24 +441,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Population group</t>
+          <t>Groupe de population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t># Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (niveaux de sévérité 3-5)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TOTAL (5-17 y.o.)</t>
+          <t>TOTAL (5-17 ans)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Girls (5-17 y.o.)</t>
+          <t>Filles (5-17 ans)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boys (5-17 y.o.)</t>
+          <t>Garcons (5-17 ans)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECE (5 y.o.)</t>
+          <t>Éducation préscolaire (5 ans)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Children with disability</t>
+          <t>Enfants handicapés</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C8" t="n">

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Enfants handicapés</t>
+          <t>Enfants en situation de handicap</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/output_validation/05_pin_overview_OCHA.xlsx
+++ b/output_validation/05_pin_overview_OCHA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,73 +462,73 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23602299</v>
+        <v>1212250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>non_pdi (5-17 y.o.)</t>
+          <t>hote (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>non_pdi</t>
+          <t>hote</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12525253</v>
+        <v>1079110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pdi (5-17 y.o.)</t>
+          <t>idp_host (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pdi</t>
+          <t>idp_host</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11077047</v>
+        <v>66749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Filles (5-17 ans)</t>
+          <t>retourne (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tous les groupes de population</t>
+          <t>retourne</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10381716</v>
+        <v>49422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garcons (5-17 ans)</t>
+          <t>idp_site (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tous les groupes de population</t>
+          <t>idp_site</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13220583</v>
+        <v>16970</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Éducation préscolaire (5 ans)</t>
+          <t>Filles (5-17 ans)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,22 +537,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2401923</v>
+        <v>618247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Garcons (5-17 ans)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tous les groupes de population</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>594002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Éducation préscolaire (5 ans)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tous les groupes de population</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>71566</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Enfants en situation de handicap</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Tous les groupes de population</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>2360230</v>
+      <c r="C10" t="n">
+        <v>121225</v>
       </c>
     </row>
   </sheetData>
